--- a/inst/extdata/nutrimenu.xlsx
+++ b/inst/extdata/nutrimenu.xlsx
@@ -1,241 +1,248 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vguillem/git/debuter/inst/extdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B77A46B-9E25-7448-865D-BF10F5AF5308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22040" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutriscore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glucides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lipides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proteines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sucre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/19461539_wrap-de-tomate-et-avocat-rapide-a-faire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/19561843_avocats-citronnes-au-thon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/21131937-potage-au-butternut-maison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/19561846_salade-de-chou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/19871728_salade-de-melon-et-jambon-sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EB3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/1993154_penne-au-st-moret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/192341456_salade-d-ete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/19244186_salade-alsacienne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/2011139_coquilles-saint-jacques-maison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/21731659-gratin-de-brocolis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/201111177-blanquette-de-veau-aux-pommes-de-terre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/20249158-courge-spaghetti-au-chorizo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/19234175_gratin-aux-pommes-de-terre-et-brocolis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/191362034_bruschetta-au-bacon-tomates-et-champignons-accompagne-d-un-oeuf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/192341442_tagliatelle-au-pesto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/19931513_bagel-au-saumon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/_croque-monsieur-oeuf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/20791459_courgettes-farcies-au-four-accompagnees-de-riz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dessert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/20791459-flan-aux-pruneaux-moelleux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/19681655_feuillete-aux-abricots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/21131937-crepes-faciles-et-rapides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/202571058_yaourt-grec-aux-fraises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/192591834_gaufres-aux-oeufs-croustillantes-et-allegees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/20296220-tarte-a-la-rhubarbe-sans-creme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/19285215_panna-cotta-a-la-mangue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/19781352_crepes-moelleuses-au-lait-d-amande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nutriwi.com/recette/21731658-muffins-au-chocolat-noir-maison</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Nutriscore</t>
+  </si>
+  <si>
+    <t>Lien</t>
+  </si>
+  <si>
+    <t>Glucides</t>
+  </si>
+  <si>
+    <t>Lipides</t>
+  </si>
+  <si>
+    <t>Proteines</t>
+  </si>
+  <si>
+    <t>Sucre</t>
+  </si>
+  <si>
+    <t>Fibres</t>
+  </si>
+  <si>
+    <t>Sel</t>
+  </si>
+  <si>
+    <t>AGS</t>
+  </si>
+  <si>
+    <t>Energie</t>
+  </si>
+  <si>
+    <t>EA1</t>
+  </si>
+  <si>
+    <t>Entree</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/19461539_wrap-de-tomate-et-avocat-rapide-a-faire</t>
+  </si>
+  <si>
+    <t>EA2</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/19561843_avocats-citronnes-au-thon</t>
+  </si>
+  <si>
+    <t>EA3</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/21131937-potage-au-butternut-maison</t>
+  </si>
+  <si>
+    <t>EB1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/19561846_salade-de-chou</t>
+  </si>
+  <si>
+    <t>EB2</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/19871728_salade-de-melon-et-jambon-sec</t>
+  </si>
+  <si>
+    <t>EB3</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/1993154_penne-au-st-moret</t>
+  </si>
+  <si>
+    <t>EC1</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/192341456_salade-d-ete</t>
+  </si>
+  <si>
+    <t>EC2</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/19244186_salade-alsacienne</t>
+  </si>
+  <si>
+    <t>EC3</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/2011139_coquilles-saint-jacques-maison</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>Plat</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/21731659-gratin-de-brocolis</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/201111177-blanquette-de-veau-aux-pommes-de-terre</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/20249158-courge-spaghetti-au-chorizo</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/19234175_gratin-aux-pommes-de-terre-et-brocolis</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/191362034_bruschetta-au-bacon-tomates-et-champignons-accompagne-d-un-oeuf</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/192341442_tagliatelle-au-pesto</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/19931513_bagel-au-saumon</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/_croque-monsieur-oeuf</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/20791459_courgettes-farcies-au-four-accompagnees-de-riz</t>
+  </si>
+  <si>
+    <t>DA1</t>
+  </si>
+  <si>
+    <t>Dessert</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/20791459-flan-aux-pruneaux-moelleux</t>
+  </si>
+  <si>
+    <t>DA2</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/19681655_feuillete-aux-abricots</t>
+  </si>
+  <si>
+    <t>DA3</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/21131937-crepes-faciles-et-rapides</t>
+  </si>
+  <si>
+    <t>DB1</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/202571058_yaourt-grec-aux-fraises</t>
+  </si>
+  <si>
+    <t>DB2</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/192591834_gaufres-aux-oeufs-croustillantes-et-allegees</t>
+  </si>
+  <si>
+    <t>DB3</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/20296220-tarte-a-la-rhubarbe-sans-creme</t>
+  </si>
+  <si>
+    <t>DC1</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/19285215_panna-cotta-a-la-mangue</t>
+  </si>
+  <si>
+    <t>DC2</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/19781352_crepes-moelleuses-au-lait-d-amande</t>
+  </si>
+  <si>
+    <t>DC3</t>
+  </si>
+  <si>
+    <t>https://www.nutriwi.com/recette/21731658-muffins-au-chocolat-noir-maison</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -271,6 +278,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -552,14 +568,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="92.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -610,32 +631,32 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>20</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>6</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>149</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -648,32 +669,32 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>97</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -686,26 +707,32 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4"/>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4" t="n">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>42</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -718,32 +745,32 @@
       <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>13</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>7</v>
       </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>5</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>184</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -756,32 +783,32 @@
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>6</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>9</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>118</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -794,32 +821,32 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>28</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>11</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>13</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>275</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -832,32 +859,32 @@
       <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>14</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>8</v>
       </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>8</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>186</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -870,32 +897,32 @@
       <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>14</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>8</v>
       </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
         <v>5</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>196</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -908,32 +935,32 @@
       <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>8</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>9</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>11</v>
       </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>6</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>169</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -946,32 +973,32 @@
       <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>9</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>6</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>5</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>122</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -984,32 +1011,32 @@
       <c r="D12" t="s">
         <v>38</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>5</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>94</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1022,32 +1049,32 @@
       <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>4</v>
       </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>58</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1060,32 +1087,32 @@
       <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>8</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>8</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>8</v>
       </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>4</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>165</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1098,32 +1125,32 @@
       <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>18</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>5</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>7</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
         <v>161</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1136,32 +1163,32 @@
       <c r="D16" t="s">
         <v>46</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>28</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>26</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>9</v>
       </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>4</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>395</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1174,32 +1201,32 @@
       <c r="D17" t="s">
         <v>48</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>30</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>9</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>12</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>3</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
         <v>4</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>256</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1212,32 +1239,32 @@
       <c r="D18" t="s">
         <v>50</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>22</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>11</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>12</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>3</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
         <v>6</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>251</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -1250,32 +1277,32 @@
       <c r="D19" t="s">
         <v>52</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>12</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>14</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>7</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>4</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>126</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1288,32 +1315,32 @@
       <c r="D20" t="s">
         <v>55</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>38</v>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>4</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>19</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>3</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
         <v>192</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1326,32 +1353,32 @@
       <c r="D21" t="s">
         <v>57</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>12</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>9</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>4</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>5</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
         <v>180</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -1364,32 +1391,32 @@
       <c r="D22" t="s">
         <v>59</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>25</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>6</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>5</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>5</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>3</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>184</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -1402,32 +1429,32 @@
       <c r="D23" t="s">
         <v>61</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>10</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>3</v>
       </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>9</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2</v>
-      </c>
-      <c r="L23" t="n">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
         <v>124</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -1440,32 +1467,32 @@
       <c r="D24" t="s">
         <v>63</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>40</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>5</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>7</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
         <v>320</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -1478,32 +1505,32 @@
       <c r="D25" t="s">
         <v>65</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>21</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>4</v>
       </c>
-      <c r="G25" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
         <v>12</v>
       </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
         <v>197</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1516,30 +1543,32 @@
       <c r="D26" t="s">
         <v>67</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>21</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>7</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>21</v>
       </c>
-      <c r="I26"/>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>5</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>242</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -1552,32 +1581,32 @@
       <c r="D27" t="s">
         <v>69</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>26</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>9</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>4</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>10</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>3</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>213</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -1590,33 +1619,33 @@
       <c r="D28" t="s">
         <v>71</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>43</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>18</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>6</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>17</v>
       </c>
-      <c r="I28" t="n">
-        <v>2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>11</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>379</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>